--- a/biology/Botanique/Clematis_patens_'Evipo062'/Clematis_patens_'Evipo062'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo062'/Clematis_patens_'Evipo062'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'evipo062' PBR &amp; PPaf est un cultivar de clématite obtenu en 2011 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Zara 'evipo062' PBR &amp; PPaf.
 La clématite Zara a été commercialisée en 2012 à la suite du Chelsea Flower Show.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">'Evipo062' est une clématite à fleur bleu tendre possédant entre 7 et 9 sépales et d'un diamètre d'environ 15 centimètres. La couleur jaune des étamines de cette clématite contraste bien avec le bleu de la fleur.
 À taille adulte la clématite Zara ne dépasse pas les 1,20 m.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">'Evipo062' est protégé par l'Union international pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial Zara est protégé par une licence trademark.
 </t>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite Zara est idéale pour une culture en pot mais s'adapte également à la culture en pleine terre.
 Cette clématite du groupe 2 fleurit sur le bois de l'année précédente au printemps puis sur la pousse de l'année à l'automne. Elle résiste à des températures inférieures à −20 °C.
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,7 +654,9 @@
           <t>Maladies et ravageurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite Zara est sensible à l'excès d'eau ce qui pourra provoquer une pourriture du collet de la plante et ainsi la mort de la clématite.
 </t>
@@ -647,7 +669,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -665,7 +687,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">À ce jour[Quand ?] la clématite Zara n'a reçu aucune récompense.
 </t>
@@ -678,7 +702,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo062%27</t>
+          <t>Clematis_patens_'Evipo062'</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -696,7 +720,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
